--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43350,6 +43350,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43387,6 +43387,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1444500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43422,6 +43422,41 @@
         <v>1444500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>99600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43457,6 +43457,41 @@
         <v>99600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>72600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43492,6 +43492,41 @@
         <v>72600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>111000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43527,6 +43527,41 @@
         <v>111000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>49900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43562,6 +43562,41 @@
         <v>49900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>46600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43597,6 +43597,41 @@
         <v>46600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43632,6 +43632,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43667,6 +43667,41 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>57600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43702,6 +43702,41 @@
         <v>57600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>98600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43737,6 +43737,41 @@
         <v>98600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43772,6 +43772,78 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>49100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43844,6 +43844,78 @@
         <v>49100</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43916,6 +43916,43 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43953,6 +43953,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43990,6 +43990,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44027,6 +44027,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>265600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44062,6 +44062,78 @@
         <v>265600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44134,6 +44134,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44169,6 +44169,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>133000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77909,6 +77909,41 @@
         <v>133000</v>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77944,6 +77944,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>2903400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77979,6 +77979,41 @@
         <v>2903400</v>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>710400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78014,6 +78014,41 @@
         <v>710400</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>896800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78049,6 +78049,41 @@
         <v>896800</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>751900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78084,6 +78084,41 @@
         <v>751900</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>721800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2209"/>
+  <dimension ref="A1:I2210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78119,6 +78119,41 @@
         <v>721800</v>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>300400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2210"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78154,6 +78154,41 @@
         <v>300400</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78189,6 +78189,41 @@
         <v>155000</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>21100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78224,6 +78224,41 @@
         <v>21100</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>178100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78259,6 +78259,41 @@
         <v>178100</v>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>559500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2214"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78294,6 +78294,41 @@
         <v>559500</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78329,6 +78329,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>104100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78364,6 +78364,41 @@
         <v>104100</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78399,6 +78399,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78436,6 +78436,41 @@
         </is>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>369400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78471,6 +78471,41 @@
         <v>369400</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>80900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2220"/>
+  <dimension ref="A1:I2221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78506,6 +78506,41 @@
         <v>80900</v>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>31600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2221"/>
+  <dimension ref="A1:I2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78541,6 +78541,41 @@
         <v>31600</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>229100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78576,6 +78576,41 @@
         <v>229100</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78611,6 +78611,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78646,6 +78646,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>193000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78681,6 +78681,41 @@
         <v>193000</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>253700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78716,6 +78716,41 @@
         <v>253700</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>2274200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78751,6 +78751,41 @@
         <v>2274200</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>1410600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78786,6 +78786,76 @@
         <v>1410600</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>2019800</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>650800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78856,6 +78856,41 @@
         <v>650800</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>5157900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78891,6 +78891,111 @@
         <v>5157900</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>4099200</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>4093000</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>16367000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78996,6 +78996,41 @@
         <v>16367000</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>2827200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79031,6 +79031,41 @@
         <v>2827200</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>1087200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5157.xlsx
+++ b/data/5157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79066,6 +79066,111 @@
         <v>1087200</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>1278100</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>795700</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>SAUDEE</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>523900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
